--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>x</t>
+  </si>
   <si>
     <t>Crash Cove</t>
   </si>
@@ -159,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -384,200 +390,204 @@
     <col customWidth="1" min="2" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="18.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>myjniak</t>
+  </si>
+  <si>
     <t>Crash Cove</t>
+  </si>
+  <si>
+    <t>1:18.74</t>
   </si>
   <si>
     <t>Mystery Caves</t>
@@ -394,200 +400,206 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -16,15 +16,12 @@
     <t>x</t>
   </si>
   <si>
-    <t>myjniak</t>
+    <t>JanneAhonen69</t>
   </si>
   <si>
     <t>Crash Cove</t>
   </si>
   <si>
-    <t>1:18.74</t>
-  </si>
-  <si>
     <t>Mystery Caves</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Jungle Boogie</t>
+  </si>
+  <si>
+    <t>1:13.64</t>
   </si>
   <si>
     <t>Clockwork Wumpa</t>
@@ -143,9 +143,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -154,12 +159,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,14 +185,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -400,205 +423,205 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,139 +11,1180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="389">
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>Rc_FIVE</t>
+  </si>
+  <si>
+    <t>Maties_Gamer</t>
+  </si>
+  <si>
+    <t>mati1212</t>
+  </si>
+  <si>
+    <t>silVersilVa89PL</t>
+  </si>
+  <si>
     <t>JanneAhonen69</t>
   </si>
   <si>
+    <t>Xerdzio</t>
+  </si>
+  <si>
+    <t>myjniak</t>
+  </si>
+  <si>
+    <t>Wajsia</t>
+  </si>
+  <si>
+    <t>Kideu98</t>
+  </si>
+  <si>
     <t>Crash Cove</t>
   </si>
   <si>
+    <t>1:17.97</t>
+  </si>
+  <si>
+    <t>1:18.74</t>
+  </si>
+  <si>
+    <t>1:18.11</t>
+  </si>
+  <si>
+    <t>1:18.54</t>
+  </si>
+  <si>
+    <t>1:18.87</t>
+  </si>
+  <si>
+    <t>1:18.71</t>
+  </si>
+  <si>
+    <t>1:19.012</t>
+  </si>
+  <si>
+    <t>1:19.513</t>
+  </si>
+  <si>
     <t>Mystery Caves</t>
   </si>
   <si>
+    <t>1:54.583</t>
+  </si>
+  <si>
+    <t>1:55.78</t>
+  </si>
+  <si>
+    <t>1:54.41</t>
+  </si>
+  <si>
+    <t>1:56.08</t>
+  </si>
+  <si>
+    <t>1:55.38</t>
+  </si>
+  <si>
+    <t>1:56.31</t>
+  </si>
+  <si>
+    <t>1:57.317</t>
+  </si>
+  <si>
+    <t>1:57.919</t>
+  </si>
+  <si>
+    <t>1:56.518</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>cicho, kminie buga</t>
+  </si>
+  <si>
     <t>Sewer Speedway</t>
   </si>
   <si>
+    <t>1:43.902</t>
+  </si>
+  <si>
+    <t>1:45.40</t>
+  </si>
+  <si>
+    <t>1:44.33</t>
+  </si>
+  <si>
+    <t>1:44.67</t>
+  </si>
+  <si>
+    <t>1:45.97</t>
+  </si>
+  <si>
+    <t>1:45.73</t>
+  </si>
+  <si>
+    <t>1:45.505</t>
+  </si>
+  <si>
+    <t>1:47.241</t>
+  </si>
+  <si>
+    <t>1:47.540</t>
+  </si>
+  <si>
     <t>Roo's Tubes</t>
   </si>
   <si>
+    <t>1:14.805</t>
+  </si>
+  <si>
+    <t>1:14.50</t>
+  </si>
+  <si>
+    <t>1:15.608</t>
+  </si>
+  <si>
+    <t>1:15.50</t>
+  </si>
+  <si>
+    <t>1:14.54</t>
+  </si>
+  <si>
+    <t>1:15.44</t>
+  </si>
+  <si>
+    <t>1:15.441</t>
+  </si>
+  <si>
+    <t>1:15.039</t>
+  </si>
+  <si>
+    <t>1:15.304</t>
+  </si>
+  <si>
     <t>Slide Coliseum</t>
   </si>
   <si>
+    <t>1:36.229</t>
+  </si>
+  <si>
+    <t>1:35.46</t>
+  </si>
+  <si>
+    <t>1:35.56</t>
+  </si>
+  <si>
+    <t>1:37.56</t>
+  </si>
+  <si>
+    <t>1:38.24</t>
+  </si>
+  <si>
+    <t>1:36.06</t>
+  </si>
+  <si>
+    <t>1:39.166</t>
+  </si>
+  <si>
+    <t>1:42.935</t>
+  </si>
+  <si>
+    <t>1:38.797</t>
+  </si>
+  <si>
     <t>Turbo Track</t>
   </si>
   <si>
+    <t>1:30.223</t>
+  </si>
+  <si>
+    <t>1:32.694</t>
+  </si>
+  <si>
+    <t>1:29.824</t>
+  </si>
+  <si>
+    <t>1:31.55</t>
+  </si>
+  <si>
+    <t>1:33.36</t>
+  </si>
+  <si>
+    <t>1:33.19</t>
+  </si>
+  <si>
+    <t>1:33.927</t>
+  </si>
+  <si>
+    <t>1:37.796</t>
+  </si>
+  <si>
+    <t>1:33.893</t>
+  </si>
+  <si>
     <t>Coco Park</t>
   </si>
   <si>
+    <t>1:15.041</t>
+  </si>
+  <si>
+    <t>1:16.27</t>
+  </si>
+  <si>
+    <t>1:16.109</t>
+  </si>
+  <si>
+    <t>1:16.376</t>
+  </si>
+  <si>
+    <t>1:17.77</t>
+  </si>
+  <si>
+    <t>1:15.97</t>
+  </si>
+  <si>
+    <t>1:16.410</t>
+  </si>
+  <si>
+    <t>1:15.275</t>
+  </si>
+  <si>
+    <t>1:17.977</t>
+  </si>
+  <si>
     <t>Tiger Temple</t>
   </si>
   <si>
+    <t>1:25.917</t>
+  </si>
+  <si>
+    <t>1:29.48</t>
+  </si>
+  <si>
+    <t>1:25.785</t>
+  </si>
+  <si>
+    <t>1:28.48</t>
+  </si>
+  <si>
+    <t>1:27.15</t>
+  </si>
+  <si>
+    <t>1:28.32</t>
+  </si>
+  <si>
+    <t>1:28.422</t>
+  </si>
+  <si>
+    <t>1:29.255</t>
+  </si>
+  <si>
+    <t>1:30.421</t>
+  </si>
+  <si>
     <t>Papu's Pyramid</t>
   </si>
   <si>
+    <t>1:23.083</t>
+  </si>
+  <si>
+    <t>1:26.855</t>
+  </si>
+  <si>
+    <t>1:25.82</t>
+  </si>
+  <si>
+    <t>1:26.75</t>
+  </si>
+  <si>
+    <t>1:24.78</t>
+  </si>
+  <si>
+    <t>1:25.95</t>
+  </si>
+  <si>
+    <t>1:24.553</t>
+  </si>
+  <si>
+    <t>1:27.357</t>
+  </si>
+  <si>
+    <t>1:25.918</t>
+  </si>
+  <si>
     <t>Dingo Canyon</t>
   </si>
   <si>
+    <t>1:26.253</t>
+  </si>
+  <si>
+    <t>1:28.256</t>
+  </si>
+  <si>
+    <t>1:26.421</t>
+  </si>
+  <si>
+    <t>1:29.32</t>
+  </si>
+  <si>
+    <t>1:30.18</t>
+  </si>
+  <si>
+    <t>1:28.52</t>
+  </si>
+  <si>
+    <t>1:30.791</t>
+  </si>
+  <si>
+    <t>1:27.688</t>
+  </si>
+  <si>
+    <t>1:31.957</t>
+  </si>
+  <si>
     <t>Polar Pass</t>
   </si>
   <si>
+    <t>2:00.019</t>
+  </si>
+  <si>
+    <t>2:00.61</t>
+  </si>
+  <si>
+    <t>1:59.68</t>
+  </si>
+  <si>
+    <t>2:02.35</t>
+  </si>
+  <si>
+    <t>2:01.75</t>
+  </si>
+  <si>
+    <t>2:02.57</t>
+  </si>
+  <si>
+    <t>2:00.99</t>
+  </si>
+  <si>
+    <t>2:01.120</t>
+  </si>
+  <si>
+    <t>2:07.092</t>
+  </si>
+  <si>
     <t>Tiny Arena</t>
   </si>
   <si>
+    <t>2:52.838</t>
+  </si>
+  <si>
+    <t>2:58.37</t>
+  </si>
+  <si>
+    <t>2:58.713</t>
+  </si>
+  <si>
+    <t>2:56.51</t>
+  </si>
+  <si>
+    <t>2:54.47</t>
+  </si>
+  <si>
+    <t>2:58.61</t>
+  </si>
+  <si>
+    <t>2:55.009</t>
+  </si>
+  <si>
+    <t>2:57.478</t>
+  </si>
+  <si>
+    <t>2:58.375</t>
+  </si>
+  <si>
     <t>Dragon Mines</t>
   </si>
   <si>
+    <t>1:15.742</t>
+  </si>
+  <si>
+    <t>1:18.57</t>
+  </si>
+  <si>
+    <t>1:16.009</t>
+  </si>
+  <si>
+    <t>1:17.91</t>
+  </si>
+  <si>
+    <t>1:17.62</t>
+  </si>
+  <si>
+    <t>1:18.179</t>
+  </si>
+  <si>
+    <t>1:17.878</t>
+  </si>
+  <si>
+    <t>1:23.850</t>
+  </si>
+  <si>
     <t>Blizzard Bluff</t>
   </si>
   <si>
+    <t>1:09.503</t>
+  </si>
+  <si>
+    <t>1:10.337</t>
+  </si>
+  <si>
+    <t>1:10.571</t>
+  </si>
+  <si>
+    <t>1:09.902</t>
+  </si>
+  <si>
+    <t>1:10.87</t>
+  </si>
+  <si>
+    <t>1:10.37</t>
+  </si>
+  <si>
+    <t>1:10.704</t>
+  </si>
+  <si>
+    <t>1:11.671</t>
+  </si>
+  <si>
+    <t>1:08.835</t>
+  </si>
+  <si>
     <t>Hot Air Skyway</t>
   </si>
   <si>
+    <t>2:05.325</t>
+  </si>
+  <si>
+    <t>2:05.726</t>
+  </si>
+  <si>
+    <t>2:10.498</t>
+  </si>
+  <si>
+    <t>2:10.264</t>
+  </si>
+  <si>
+    <t>2:08.56</t>
+  </si>
+  <si>
+    <t>2:11.61</t>
+  </si>
+  <si>
+    <t>2:07.996</t>
+  </si>
+  <si>
+    <t>2:14.266</t>
+  </si>
+  <si>
+    <t>2:07.191</t>
+  </si>
+  <si>
     <t>Cortex Castle</t>
   </si>
   <si>
+    <t>1:48.375</t>
+  </si>
+  <si>
+    <t>1:53.07</t>
+  </si>
+  <si>
+    <t>1:51.980</t>
+  </si>
+  <si>
+    <t>1:52.179</t>
+  </si>
+  <si>
+    <t>1:51.81</t>
+  </si>
+  <si>
+    <t>1:54.51</t>
+  </si>
+  <si>
+    <t>1:51.011</t>
+  </si>
+  <si>
+    <t>1:53.313</t>
+  </si>
+  <si>
+    <t>1:54.582</t>
+  </si>
+  <si>
     <t>N.Gin Labs</t>
   </si>
   <si>
+    <t>2:08.49</t>
+  </si>
+  <si>
+    <t>2:10.46</t>
+  </si>
+  <si>
+    <t>2:13.002</t>
+  </si>
+  <si>
+    <t>2:12.00</t>
+  </si>
+  <si>
+    <t>2:11.39</t>
+  </si>
+  <si>
+    <t>2:13.76</t>
+  </si>
+  <si>
+    <t>2:09.832</t>
+  </si>
+  <si>
+    <t>2:10.098</t>
+  </si>
+  <si>
+    <t>2:12.065</t>
+  </si>
+  <si>
     <t>Oxide Station</t>
   </si>
   <si>
+    <t>2:38.824</t>
+  </si>
+  <si>
+    <t>2:41.29</t>
+  </si>
+  <si>
+    <t>2:41.095</t>
+  </si>
+  <si>
+    <t>2:41.495</t>
+  </si>
+  <si>
+    <t>2:39.32</t>
+  </si>
+  <si>
+    <t>2:42.56</t>
+  </si>
+  <si>
+    <t>2:42.931</t>
+  </si>
+  <si>
+    <t>2:43.597</t>
+  </si>
+  <si>
+    <t>2:39.958</t>
+  </si>
+  <si>
     <t>Inferno Island</t>
   </si>
   <si>
+    <t>1:32.389</t>
+  </si>
+  <si>
+    <t>1:33.26</t>
+  </si>
+  <si>
+    <t>1:33.194</t>
+  </si>
+  <si>
+    <t>1:33.195</t>
+  </si>
+  <si>
+    <t>1:33.39</t>
+  </si>
+  <si>
+    <t>1:33.05</t>
+  </si>
+  <si>
+    <t>1:33.028</t>
+  </si>
+  <si>
+    <t>1:33.225</t>
+  </si>
+  <si>
+    <t>1:32.524</t>
+  </si>
+  <si>
     <t>Jungle Boogie</t>
   </si>
   <si>
+    <t>1:12.841</t>
+  </si>
+  <si>
+    <t>1:13.70</t>
+  </si>
+  <si>
+    <t>1:13.676</t>
+  </si>
+  <si>
+    <t>1:13.474</t>
+  </si>
+  <si>
     <t>1:13.64</t>
   </si>
   <si>
+    <t>1:14.457</t>
+  </si>
+  <si>
+    <t>1:13.241</t>
+  </si>
+  <si>
+    <t>1:13.306</t>
+  </si>
+  <si>
+    <t>1:13.073</t>
+  </si>
+  <si>
     <t>Clockwork Wumpa</t>
   </si>
   <si>
+    <t>1:52.379</t>
+  </si>
+  <si>
+    <t>1:53.51</t>
+  </si>
+  <si>
+    <t>1:53.94</t>
+  </si>
+  <si>
+    <t>1:52.81</t>
+  </si>
+  <si>
+    <t>1:54.44</t>
+  </si>
+  <si>
+    <t>1:54.36</t>
+  </si>
+  <si>
+    <t>1:54.748</t>
+  </si>
+  <si>
+    <t>1:53.714</t>
+  </si>
+  <si>
+    <t>1:55.147</t>
+  </si>
+  <si>
     <t>Android Alley</t>
   </si>
   <si>
+    <t>2:27.612</t>
+  </si>
+  <si>
+    <t>2:28.94</t>
+  </si>
+  <si>
+    <t>2:29.551</t>
+  </si>
+  <si>
+    <t>2:28.649</t>
+  </si>
+  <si>
+    <t>2:27.58</t>
+  </si>
+  <si>
+    <t>2:28.61</t>
+  </si>
+  <si>
+    <t>2:27.549</t>
+  </si>
+  <si>
+    <t>2:30.182</t>
+  </si>
+  <si>
+    <t>2:28.781</t>
+  </si>
+  <si>
     <t>Electron Avenue</t>
   </si>
   <si>
+    <t>2:57.642</t>
+  </si>
+  <si>
+    <t>2:57.17</t>
+  </si>
+  <si>
+    <t>3:02.384</t>
+  </si>
+  <si>
+    <t>2:59.880</t>
+  </si>
+  <si>
+    <t>3:00.16</t>
+  </si>
+  <si>
+    <t>3:03.23</t>
+  </si>
+  <si>
+    <t>3:03.817</t>
+  </si>
+  <si>
+    <t>3:00.479</t>
+  </si>
+  <si>
+    <t>3:03.847</t>
+  </si>
+  <si>
     <t>Deep Sea Driving</t>
   </si>
   <si>
+    <t>1:37.329</t>
+  </si>
+  <si>
+    <t>1:39.06</t>
+  </si>
+  <si>
+    <t>1:39.267</t>
+  </si>
+  <si>
+    <t>1:40.568</t>
+  </si>
+  <si>
+    <t>1:34.06</t>
+  </si>
+  <si>
+    <t>1:40.76</t>
+  </si>
+  <si>
+    <t>1:38.995</t>
+  </si>
+  <si>
+    <t>1:49.743</t>
+  </si>
+  <si>
+    <t>1:37.763</t>
+  </si>
+  <si>
     <t>Thunder Struck</t>
   </si>
   <si>
+    <t>1:49.709</t>
+  </si>
+  <si>
+    <t>1:53.78</t>
+  </si>
+  <si>
+    <t>1:56.985</t>
+  </si>
+  <si>
+    <t>1:51.94</t>
+  </si>
+  <si>
+    <t>1:51.64</t>
+  </si>
+  <si>
+    <t>1:56.916</t>
+  </si>
+  <si>
+    <t>1:55.249</t>
+  </si>
+  <si>
+    <t>1:57.250</t>
+  </si>
+  <si>
+    <t>1:52.779</t>
+  </si>
+  <si>
     <t>Tiny Temple</t>
   </si>
   <si>
+    <t>1:37.998</t>
+  </si>
+  <si>
+    <t>1:38.66</t>
+  </si>
+  <si>
+    <t>1:39.400</t>
+  </si>
+  <si>
+    <t>1:38.500</t>
+  </si>
+  <si>
+    <t>1:38.49</t>
+  </si>
+  <si>
+    <t>1:38.43</t>
+  </si>
+  <si>
+    <t>1:37.932</t>
+  </si>
+  <si>
+    <t>1:38.498</t>
+  </si>
+  <si>
+    <t>1:38.164</t>
+  </si>
+  <si>
     <t>Meteor Gorge</t>
   </si>
   <si>
+    <t>1:22.647</t>
+  </si>
+  <si>
+    <t>1:24.05</t>
+  </si>
+  <si>
+    <t>1:23.916</t>
+  </si>
+  <si>
+    <t>1:23.417</t>
+  </si>
+  <si>
+    <t>1:22.91</t>
+  </si>
+  <si>
+    <t>1:22.61</t>
+  </si>
+  <si>
+    <t>1:23.550</t>
+  </si>
+  <si>
+    <t>1:23.249</t>
+  </si>
+  <si>
+    <t>1:24.218</t>
+  </si>
+  <si>
     <t>Barin Ruins</t>
   </si>
   <si>
+    <t>1:41.168</t>
+  </si>
+  <si>
+    <t>1:42.70</t>
+  </si>
+  <si>
+    <t>1:42.604</t>
+  </si>
+  <si>
+    <t>1:42.101</t>
+  </si>
+  <si>
+    <t>1:42.23</t>
+  </si>
+  <si>
+    <t>1:41.40</t>
+  </si>
+  <si>
+    <t>1:42.837</t>
+  </si>
+  <si>
+    <t>1:42.335</t>
+  </si>
+  <si>
+    <t>1:42.367</t>
+  </si>
+  <si>
     <t>Out of Time</t>
   </si>
   <si>
+    <t>1:51.110</t>
+  </si>
+  <si>
+    <t>1:50.44</t>
+  </si>
+  <si>
+    <t>1:53.74</t>
+  </si>
+  <si>
+    <t>1:51.74</t>
+  </si>
+  <si>
+    <t>1:54.31</t>
+  </si>
+  <si>
+    <t>1:52.41</t>
+  </si>
+  <si>
+    <t>1:53.614</t>
+  </si>
+  <si>
+    <t>1:54.413</t>
+  </si>
+  <si>
+    <t>1:55.414</t>
+  </si>
+  <si>
     <t>Assembly Lane</t>
   </si>
   <si>
+    <t>2:21.608</t>
+  </si>
+  <si>
+    <t>2:24.34</t>
+  </si>
+  <si>
+    <t>2:24.413</t>
+  </si>
+  <si>
+    <t>2:24.346</t>
+  </si>
+  <si>
+    <t>2:25.31</t>
+  </si>
+  <si>
+    <t>2:24.31</t>
+  </si>
+  <si>
+    <t>2:24.913</t>
+  </si>
+  <si>
+    <t>2:25.813</t>
+  </si>
+  <si>
+    <t>2:25.844</t>
+  </si>
+  <si>
     <t>Hyper Spaceway</t>
   </si>
   <si>
+    <t>1:46.773</t>
+  </si>
+  <si>
+    <t>1:46.00</t>
+  </si>
+  <si>
+    <t>1:48.308</t>
+  </si>
+  <si>
+    <t>1:46.775</t>
+  </si>
+  <si>
+    <t>1:47.34</t>
+  </si>
+  <si>
+    <t>1:47.640</t>
+  </si>
+  <si>
+    <t>1:47.541</t>
+  </si>
+  <si>
+    <t>1:47.272</t>
+  </si>
+  <si>
     <t>Twilight Tour</t>
   </si>
   <si>
+    <t>2:10.729</t>
+  </si>
+  <si>
+    <t>2:12.499</t>
+  </si>
+  <si>
+    <t>2:11.633</t>
+  </si>
+  <si>
+    <t>2:11.834</t>
+  </si>
+  <si>
+    <t>2:12.39</t>
+  </si>
+  <si>
+    <t>2:11.76</t>
+  </si>
+  <si>
+    <t>2:11.332</t>
+  </si>
+  <si>
+    <t>2:12.329</t>
+  </si>
+  <si>
     <t>Prehistoric Playground</t>
   </si>
   <si>
+    <t>2:19.405</t>
+  </si>
+  <si>
+    <t>2:21.07</t>
+  </si>
+  <si>
+    <t>2:21.776</t>
+  </si>
+  <si>
+    <t>2:21.274</t>
+  </si>
+  <si>
+    <t>2:20.70</t>
+  </si>
+  <si>
+    <t>2:18.93</t>
+  </si>
+  <si>
+    <t>2:20.808</t>
+  </si>
+  <si>
+    <t>2:22.108</t>
+  </si>
+  <si>
+    <t>2:21.374</t>
+  </si>
+  <si>
     <t>Spyro Circuit</t>
   </si>
   <si>
+    <t>2:09.361</t>
+  </si>
+  <si>
+    <t>2:11.43</t>
+  </si>
+  <si>
+    <t>2:10.999</t>
+  </si>
+  <si>
+    <t>2:11.198</t>
+  </si>
+  <si>
+    <t>2:11.24</t>
+  </si>
+  <si>
+    <t>2:11.464</t>
+  </si>
+  <si>
+    <t>2:10.863</t>
+  </si>
+  <si>
+    <t>2:09.995</t>
+  </si>
+  <si>
     <t>Nina's Nightmare</t>
   </si>
   <si>
+    <t>1:46.605</t>
+  </si>
+  <si>
+    <t>1:48.87</t>
+  </si>
+  <si>
+    <t>1:49.042</t>
+  </si>
+  <si>
+    <t>1:48.30</t>
+  </si>
+  <si>
+    <t>1:49.50</t>
+  </si>
+  <si>
+    <t>1:48.92</t>
+  </si>
+  <si>
+    <t>1:49.242</t>
+  </si>
+  <si>
+    <t>1:48.541</t>
+  </si>
+  <si>
+    <t>1:50.108</t>
+  </si>
+  <si>
     <t>Koala Carnival</t>
   </si>
   <si>
+    <t>1:38.098</t>
+  </si>
+  <si>
+    <t>1:39.66</t>
+  </si>
+  <si>
+    <t>1:37.933</t>
+  </si>
+  <si>
+    <t>1:39.501</t>
+  </si>
+  <si>
+    <t>1:39.23</t>
+  </si>
+  <si>
+    <t>1:38.63</t>
+  </si>
+  <si>
+    <t>1:38.367</t>
+  </si>
+  <si>
+    <t>1:38.467</t>
+  </si>
+  <si>
+    <t>1:38.832</t>
+  </si>
+  <si>
     <t>Gingerbread Joyride</t>
   </si>
   <si>
+    <t>1:51.878</t>
+  </si>
+  <si>
+    <t>1:52.57</t>
+  </si>
+  <si>
+    <t>1:53.91</t>
+  </si>
+  <si>
+    <t>1:52.94</t>
+  </si>
+  <si>
+    <t>1:52.97</t>
+  </si>
+  <si>
+    <t>1:52.87</t>
+  </si>
+  <si>
+    <t>1:51.880</t>
+  </si>
+  <si>
+    <t>1:51.778</t>
+  </si>
+  <si>
+    <t>1:52.245</t>
+  </si>
+  <si>
     <t>Megamix Mania</t>
   </si>
   <si>
+    <t>2:01.41</t>
+  </si>
+  <si>
+    <t>2:02.88</t>
+  </si>
+  <si>
+    <t>2:04.12</t>
+  </si>
+  <si>
+    <t>2:03.39</t>
+  </si>
+  <si>
+    <t>2:04.15</t>
+  </si>
+  <si>
+    <t>2:02.65</t>
+  </si>
+  <si>
     <t>Drive-Thru Danger</t>
+  </si>
+  <si>
+    <t>1:44.70</t>
+  </si>
+  <si>
+    <t>1:46.90</t>
+  </si>
+  <si>
+    <t>1:48.17</t>
+  </si>
+  <si>
+    <t>1:47.60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -151,15 +1192,33 @@
     </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color rgb="FFDADADA"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,18 +1233,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4CACE"/>
+        <bgColor rgb="FFC4CACE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA46628"/>
+        <bgColor rgb="FFA46628"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3FFF2"/>
+        <bgColor rgb="FFF3FFF2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -193,11 +1296,41 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,206 +1559,1281 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
+      <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
+      <c r="A15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
+      <c r="A16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
+      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
+      <c r="A18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+      <c r="A19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
+      <c r="A20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
+      <c r="A22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
+      <c r="A23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
+      <c r="A24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
+      <c r="A25" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
+      <c r="A26" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
+      <c r="A27" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="J41" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>x</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>1:14.47</t>
+  </si>
+  <si>
+    <t>wow :O</t>
+  </si>
+  <si>
+    <t>Maties? :D</t>
+  </si>
+  <si>
+    <t>może...</t>
   </si>
   <si>
     <t>Slide Coliseum</t>
@@ -524,9 +533,15 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -542,7 +557,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -563,7 +578,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -584,7 +599,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -605,7 +620,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -626,7 +641,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -647,7 +662,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -668,7 +683,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -689,10 +704,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -712,7 +727,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -733,7 +748,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -754,7 +769,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -775,7 +790,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -796,7 +811,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -817,7 +832,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -838,7 +853,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -859,7 +874,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -880,10 +895,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -903,7 +918,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -924,7 +939,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -945,7 +960,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -966,10 +981,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -989,10 +1004,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1012,7 +1027,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1033,7 +1048,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1054,7 +1069,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1075,7 +1090,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1096,10 +1111,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1119,7 +1134,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1140,7 +1155,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1161,7 +1176,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1182,7 +1197,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1203,7 +1218,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1224,10 +1239,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1247,7 +1262,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1268,7 +1283,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>mati1212</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Maties_Gamer</t>
+  </si>
+  <si>
+    <t>silVersilVa89PL</t>
+  </si>
+  <si>
+    <t>Rc_FIVE</t>
   </si>
   <si>
     <t>Crash Cove</t>
@@ -31,24 +37,21 @@
     <t>Roo's Tubes</t>
   </si>
   <si>
-    <t>1:14.47</t>
-  </si>
-  <si>
-    <t>wow :O</t>
-  </si>
-  <si>
-    <t>Maties? :D</t>
-  </si>
-  <si>
-    <t>może...</t>
+    <t>1:15.20</t>
   </si>
   <si>
     <t>Slide Coliseum</t>
   </si>
   <si>
+    <t>1:35.69</t>
+  </si>
+  <si>
     <t>Turbo Track</t>
   </si>
   <si>
+    <t>1:29.82</t>
+  </si>
+  <si>
     <t>Coco Park</t>
   </si>
   <si>
@@ -58,18 +61,24 @@
     <t>Papu's Pyramid</t>
   </si>
   <si>
+    <t>1:26.25</t>
+  </si>
+  <si>
     <t>Dingo Canyon</t>
   </si>
   <si>
+    <t>1:29.19</t>
+  </si>
+  <si>
     <t>Polar Pass</t>
   </si>
   <si>
+    <t>1:59.35</t>
+  </si>
+  <si>
     <t>Tiny Arena</t>
   </si>
   <si>
-    <t>2:53.24</t>
-  </si>
-  <si>
     <t>Dragon Mines</t>
   </si>
   <si>
@@ -79,9 +88,15 @@
     <t>Hot Air Skyway</t>
   </si>
   <si>
+    <t>2:08.69</t>
+  </si>
+  <si>
     <t>Cortex Castle</t>
   </si>
   <si>
+    <t>1:50.34</t>
+  </si>
+  <si>
     <t>N.Gin Labs</t>
   </si>
   <si>
@@ -94,33 +109,33 @@
     <t>Jungle Boogie</t>
   </si>
   <si>
+    <t>1:12.90</t>
+  </si>
+  <si>
     <t>Clockwork Wumpa</t>
   </si>
   <si>
-    <t>1:53.94</t>
-  </si>
-  <si>
     <t>Android Alley</t>
   </si>
   <si>
     <t>Electron Avenue</t>
   </si>
   <si>
+    <t>2:56.34</t>
+  </si>
+  <si>
     <t>Deep Sea Driving</t>
   </si>
   <si>
     <t>Thunder Struck</t>
   </si>
   <si>
-    <t>1:53.21</t>
+    <t>1:51.61</t>
   </si>
   <si>
     <t>Tiny Temple</t>
   </si>
   <si>
-    <t>1:37.76</t>
-  </si>
-  <si>
     <t>Meteor Gorge</t>
   </si>
   <si>
@@ -136,7 +151,7 @@
     <t>Hyper Spaceway</t>
   </si>
   <si>
-    <t>1:47.80</t>
+    <t>1:47.00</t>
   </si>
   <si>
     <t>Twilight Tour</t>
@@ -155,9 +170,6 @@
   </si>
   <si>
     <t>Gingerbread Joyride</t>
-  </si>
-  <si>
-    <t>1:52.01</t>
   </si>
   <si>
     <t>Megamix Mania</t>
@@ -178,10 +190,12 @@
     </font>
     <font/>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -206,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -216,10 +230,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -447,8 +464,12 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -465,7 +486,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -486,9 +507,9 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -507,9 +528,9 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -528,20 +549,14 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -557,11 +572,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -580,9 +597,11 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -599,7 +618,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -620,7 +639,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -641,10 +660,12 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -662,10 +683,12 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -683,11 +706,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -704,11 +729,9 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -727,7 +750,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -748,7 +771,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -769,10 +792,12 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,10 +815,12 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -811,7 +838,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -832,7 +859,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -853,7 +880,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -874,10 +901,12 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -895,11 +924,9 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -918,7 +945,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -939,11 +966,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -960,9 +989,9 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -981,12 +1010,12 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1004,11 +1033,9 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1027,7 +1054,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1048,7 +1075,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1069,7 +1096,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1090,7 +1117,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1111,10 +1138,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1134,7 +1161,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1155,7 +1182,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1176,7 +1203,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1197,7 +1224,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1218,7 +1245,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1239,11 +1266,9 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1262,9 +1287,9 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1283,9 +1308,9 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,23 +11,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Maties_Gamer</t>
-  </si>
-  <si>
-    <t>silVersilVa89PL</t>
-  </si>
-  <si>
-    <t>Rc_FIVE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>Wojtek_Pogromca</t>
   </si>
   <si>
     <t>Crash Cove</t>
   </si>
   <si>
+    <t>1:40:00</t>
+  </si>
+  <si>
     <t>Mystery Caves</t>
   </si>
   <si>
@@ -37,21 +34,12 @@
     <t>Roo's Tubes</t>
   </si>
   <si>
-    <t>1:15.20</t>
-  </si>
-  <si>
     <t>Slide Coliseum</t>
   </si>
   <si>
-    <t>1:35.69</t>
-  </si>
-  <si>
     <t>Turbo Track</t>
   </si>
   <si>
-    <t>1:29.82</t>
-  </si>
-  <si>
     <t>Coco Park</t>
   </si>
   <si>
@@ -61,21 +49,12 @@
     <t>Papu's Pyramid</t>
   </si>
   <si>
-    <t>1:26.25</t>
-  </si>
-  <si>
     <t>Dingo Canyon</t>
   </si>
   <si>
-    <t>1:29.19</t>
-  </si>
-  <si>
     <t>Polar Pass</t>
   </si>
   <si>
-    <t>1:59.35</t>
-  </si>
-  <si>
     <t>Tiny Arena</t>
   </si>
   <si>
@@ -88,15 +67,9 @@
     <t>Hot Air Skyway</t>
   </si>
   <si>
-    <t>2:08.69</t>
-  </si>
-  <si>
     <t>Cortex Castle</t>
   </si>
   <si>
-    <t>1:50.34</t>
-  </si>
-  <si>
     <t>N.Gin Labs</t>
   </si>
   <si>
@@ -109,9 +82,6 @@
     <t>Jungle Boogie</t>
   </si>
   <si>
-    <t>1:12.90</t>
-  </si>
-  <si>
     <t>Clockwork Wumpa</t>
   </si>
   <si>
@@ -121,18 +91,12 @@
     <t>Electron Avenue</t>
   </si>
   <si>
-    <t>2:56.34</t>
-  </si>
-  <si>
     <t>Deep Sea Driving</t>
   </si>
   <si>
     <t>Thunder Struck</t>
   </si>
   <si>
-    <t>1:51.61</t>
-  </si>
-  <si>
     <t>Tiny Temple</t>
   </si>
   <si>
@@ -149,9 +113,6 @@
   </si>
   <si>
     <t>Hyper Spaceway</t>
-  </si>
-  <si>
-    <t>1:47.00</t>
   </si>
   <si>
     <t>Twilight Tour</t>
@@ -230,13 +191,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -464,975 +425,949 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
+      <c r="A16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
+      <c r="A17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>30</v>
+      <c r="A20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>31</v>
+      <c r="A21" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3"/>
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
+      <c r="A26" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>41</v>
+      <c r="A28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>42</v>
+      <c r="A29" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3"/>
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>44</v>
+      <c r="A31" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
+      <c r="A33" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="3"/>
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="3"/>
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>51</v>
+      <c r="A37" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>

--- a/output/times_from_webpage.xlsx
+++ b/output/times_from_webpage.xlsx
@@ -11,20 +11,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>Wojtek_Pogromca</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Maties_Gamer</t>
   </si>
   <si>
     <t>Crash Cove</t>
   </si>
   <si>
-    <t>1:40:00</t>
-  </si>
-  <si>
     <t>Mystery Caves</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
     <t>Turbo Track</t>
   </si>
   <si>
+    <t>1:30.65</t>
+  </si>
+  <si>
     <t>Coco Park</t>
   </si>
   <si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Inferno Island</t>
+  </si>
+  <si>
+    <t>1:32.92</t>
   </si>
   <si>
     <t>Jungle Boogie</t>
@@ -143,13 +146,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -161,7 +168,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +181,12 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F3F5"/>
+        <bgColor rgb="FFF2F3F5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -181,23 +194,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -416,6 +432,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.57"/>
     <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col customWidth="1" min="13" max="13" width="42.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -445,10 +462,8 @@
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -466,10 +481,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -487,11 +502,11 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -508,10 +523,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -529,9 +544,9 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -550,9 +565,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -636,7 +653,7 @@
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -657,7 +674,7 @@
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -762,7 +779,7 @@
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -783,7 +800,7 @@
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -804,7 +821,7 @@
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -825,7 +842,9 @@
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -844,9 +863,9 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -865,7 +884,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -886,9 +905,9 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -907,9 +926,9 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -928,7 +947,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -949,9 +968,9 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -970,9 +989,9 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -991,7 +1010,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1012,7 +1031,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1033,9 +1052,9 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1054,7 +1073,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1075,9 +1094,9 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1096,7 +1115,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1117,7 +1136,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -1138,7 +1157,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -1159,7 +1178,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -1180,7 +1199,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1201,9 +1220,9 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1222,7 +1241,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1243,7 +1262,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
